--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/Informe de Pruebas de Funcionalidad.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/Informe de Pruebas de Funcionalidad.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -134,7 +134,10 @@
     <t xml:space="preserve">Se enviara un correo a las cuentas de asuntos estudiantiles informando si se elimino o creo una votacion con la respectiva sigla de esta  </t>
   </si>
   <si>
-    <t>Funciona sin ningun problema - Sin Observaciones - Se encuentra y sugiere que no solo le llegue correo a los de asuntos estudiantiles si no que tambien a los concejeros de carrera</t>
+    <t>Funciona sin ningun problema - Sin Observaciones - Se encuentra y sugiere que no solo le llegue correo a los de asuntos estudiantiles si no que tambien a los consejeros de carrera</t>
+  </si>
+  <si>
+    <t>Se añade a la funcion de notificacion de correos que cuando se cree o elimine se avise tanto a usuarios de asuntos estudiantiles y a consejeros de carrera</t>
   </si>
 </sst>
 </file>
@@ -1624,7 +1627,9 @@
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="4"/>
-      <c r="V23" s="12"/>
+      <c r="V23" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="W23" s="3"/>
       <c r="X23" s="4"/>
     </row>

--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/Informe de Pruebas de Funcionalidad.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/Informe de Pruebas de Funcionalidad.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet state="visible" name="Sprint 1" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Sprint 2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Sprint 3" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="58">
   <si>
     <t>ID</t>
   </si>
@@ -138,6 +139,54 @@
   </si>
   <si>
     <t>Se añade a la funcion de notificacion de correos que cuando se cree o elimine se avise tanto a usuarios de asuntos estudiantiles y a consejeros de carrera</t>
+  </si>
+  <si>
+    <t>Consejero de carrera  puede participar en una votacion activa.</t>
+  </si>
+  <si>
+    <t>Ingresar como consejero de carrera asi vizualizar las votaciones activas y votar en alguna de estas.</t>
+  </si>
+  <si>
+    <t>El usuario realiza una votacion y se guarda correctamente y a su vez la votacion en la cual participo no pueda volver a hacerlo.</t>
+  </si>
+  <si>
+    <t>El usuario consejero de carrera puede ingresar a su apartado</t>
+  </si>
+  <si>
+    <t>Al ingresar al login de la plataforma y completarlo con el correo institucional como consejero verifica esto y redirige al apartado de consejero de carrera</t>
+  </si>
+  <si>
+    <t>Ingresa al apartado del consejero de carrera</t>
+  </si>
+  <si>
+    <t>Se le notifica al consejero de carrera cuando realiza un voto</t>
+  </si>
+  <si>
+    <t>Realizar un voto eligiendo la opcion que mas se le acomode</t>
+  </si>
+  <si>
+    <t>Se le notifica por correo electronico al consejero de carrera  que su voto fue realizado junto con el nombre, sigla y la opcion que voto.</t>
+  </si>
+  <si>
+    <t>Se le notifica por correo al usuario consejero de carrera cuando una votacion finaliza junto con la opcion ganadora de esta.</t>
+  </si>
+  <si>
+    <t>Ser consejero de carrera que alla realizado voto en la plataforma.</t>
+  </si>
+  <si>
+    <t>Se le notifica por correo electronico al consejero de carrera que a votacion finalizo junto con la opcion que gano.</t>
+  </si>
+  <si>
+    <t>PF05</t>
+  </si>
+  <si>
+    <t>Los votos se guardan en una tabla de analisis</t>
+  </si>
+  <si>
+    <t>Que los consejeros de carreras voten en las votaciones activas.</t>
+  </si>
+  <si>
+    <t>El usuario de asuntos estudiantiles podra ver un apartado donde se ven las opciones mas votadas y las personas que votaron junto con que opcion eligieron.</t>
   </si>
 </sst>
 </file>
@@ -292,6 +341,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1079,46 +1132,46 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="C3:E4"/>
+    <mergeCell ref="F3:G4"/>
+    <mergeCell ref="H3:J4"/>
+    <mergeCell ref="K3:M4"/>
+    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="P3:U4"/>
+    <mergeCell ref="V3:X4"/>
+    <mergeCell ref="P5:U10"/>
+    <mergeCell ref="V5:X10"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="C5:E10"/>
+    <mergeCell ref="F5:G10"/>
+    <mergeCell ref="H5:J10"/>
+    <mergeCell ref="K5:M10"/>
+    <mergeCell ref="N5:O10"/>
+    <mergeCell ref="C11:E16"/>
+    <mergeCell ref="F11:G16"/>
+    <mergeCell ref="H11:J16"/>
     <mergeCell ref="K11:M16"/>
     <mergeCell ref="N11:O16"/>
+    <mergeCell ref="P11:U16"/>
+    <mergeCell ref="V11:X16"/>
+    <mergeCell ref="P17:U22"/>
     <mergeCell ref="V17:X22"/>
-    <mergeCell ref="P17:U22"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="C23:E28"/>
+    <mergeCell ref="F23:G28"/>
+    <mergeCell ref="H23:J28"/>
     <mergeCell ref="K23:M28"/>
-    <mergeCell ref="N17:O22"/>
-    <mergeCell ref="K17:M22"/>
     <mergeCell ref="N23:O28"/>
-    <mergeCell ref="F11:G16"/>
-    <mergeCell ref="H11:J16"/>
-    <mergeCell ref="C11:E16"/>
-    <mergeCell ref="K5:M10"/>
-    <mergeCell ref="V11:X16"/>
-    <mergeCell ref="V5:X10"/>
-    <mergeCell ref="P5:U10"/>
-    <mergeCell ref="P11:U16"/>
-    <mergeCell ref="V3:X4"/>
-    <mergeCell ref="P3:U4"/>
+    <mergeCell ref="P23:U28"/>
     <mergeCell ref="V23:X28"/>
-    <mergeCell ref="P23:U28"/>
-    <mergeCell ref="H17:J22"/>
-    <mergeCell ref="H23:J28"/>
-    <mergeCell ref="K3:M4"/>
-    <mergeCell ref="H3:J4"/>
-    <mergeCell ref="N3:O4"/>
-    <mergeCell ref="N5:O10"/>
-    <mergeCell ref="C5:E10"/>
-    <mergeCell ref="C3:E4"/>
-    <mergeCell ref="F3:G4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="F5:G10"/>
-    <mergeCell ref="H5:J10"/>
-    <mergeCell ref="F17:G22"/>
-    <mergeCell ref="F23:G28"/>
-    <mergeCell ref="C23:E28"/>
-    <mergeCell ref="C17:E22"/>
-    <mergeCell ref="B5:B10"/>
     <mergeCell ref="B11:B16"/>
     <mergeCell ref="B17:B22"/>
-    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="C17:E22"/>
+    <mergeCell ref="F17:G22"/>
+    <mergeCell ref="H17:J22"/>
+    <mergeCell ref="K17:M22"/>
+    <mergeCell ref="N17:O22"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1735,39 +1788,826 @@
     <mergeCell ref="N3:O4"/>
     <mergeCell ref="P3:U4"/>
     <mergeCell ref="V3:X4"/>
+    <mergeCell ref="P5:U10"/>
+    <mergeCell ref="V5:X10"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B10"/>
     <mergeCell ref="C5:E10"/>
     <mergeCell ref="F5:G10"/>
     <mergeCell ref="H5:J10"/>
     <mergeCell ref="K5:M10"/>
     <mergeCell ref="N5:O10"/>
-    <mergeCell ref="P5:U10"/>
-    <mergeCell ref="V5:X10"/>
-    <mergeCell ref="B5:B10"/>
     <mergeCell ref="C11:E16"/>
     <mergeCell ref="F11:G16"/>
     <mergeCell ref="H11:J16"/>
     <mergeCell ref="K11:M16"/>
     <mergeCell ref="N11:O16"/>
     <mergeCell ref="P11:U16"/>
+    <mergeCell ref="V11:X16"/>
+    <mergeCell ref="P17:U22"/>
+    <mergeCell ref="V17:X22"/>
+    <mergeCell ref="B23:B28"/>
     <mergeCell ref="C23:E28"/>
     <mergeCell ref="F23:G28"/>
     <mergeCell ref="H23:J28"/>
     <mergeCell ref="K23:M28"/>
     <mergeCell ref="N23:O28"/>
     <mergeCell ref="P23:U28"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="V11:X16"/>
-    <mergeCell ref="V17:X22"/>
     <mergeCell ref="V23:X28"/>
     <mergeCell ref="B11:B16"/>
+    <mergeCell ref="B17:B22"/>
     <mergeCell ref="C17:E22"/>
     <mergeCell ref="F17:G22"/>
     <mergeCell ref="H17:J22"/>
     <mergeCell ref="K17:M22"/>
     <mergeCell ref="N17:O22"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="3">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="P3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="3"/>
+      <c r="X3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="9"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="9"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="4"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="13"/>
+      <c r="C6" s="7"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="7"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="7"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="7"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="7"/>
+      <c r="X6" s="11"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="13"/>
+      <c r="C7" s="7"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="7"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="7"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="7"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="7"/>
+      <c r="X7" s="11"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="13"/>
+      <c r="C8" s="7"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="7"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="7"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="7"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="7"/>
+      <c r="X8" s="11"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="13"/>
+      <c r="C9" s="7"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="7"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="7"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="7"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="7"/>
+      <c r="X9" s="11"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="6"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="9"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="P11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="13"/>
+      <c r="C12" s="7"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="7"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="7"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="7"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="7"/>
+      <c r="X12" s="11"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="13"/>
+      <c r="C13" s="7"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="7"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="7"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="7"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="7"/>
+      <c r="X13" s="11"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="13"/>
+      <c r="C14" s="7"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="7"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="7"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="7"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="7"/>
+      <c r="X14" s="11"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="13"/>
+      <c r="C15" s="7"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="7"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="7"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="7"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="7"/>
+      <c r="X15" s="11"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="6"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="9"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O17" s="4"/>
+      <c r="P17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="4"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="13"/>
+      <c r="C18" s="7"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="7"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="7"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="7"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="7"/>
+      <c r="X18" s="11"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="13"/>
+      <c r="C19" s="7"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="7"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="7"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="7"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="7"/>
+      <c r="X19" s="11"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="13"/>
+      <c r="C20" s="7"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="7"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="7"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="7"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="7"/>
+      <c r="X20" s="11"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="13"/>
+      <c r="C21" s="7"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="7"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="7"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="7"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="7"/>
+      <c r="X21" s="11"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="6"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="9"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O23" s="4"/>
+      <c r="P23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="4"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="13"/>
+      <c r="C24" s="7"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="7"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="7"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="7"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="7"/>
+      <c r="X24" s="11"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="13"/>
+      <c r="C25" s="7"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="7"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="7"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="7"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="7"/>
+      <c r="X25" s="11"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="13"/>
+      <c r="C26" s="7"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="7"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="7"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="7"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="7"/>
+      <c r="X26" s="11"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="13"/>
+      <c r="C27" s="7"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="7"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="7"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="7"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="7"/>
+      <c r="X27" s="11"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="6"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="9"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L29" s="3"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O29" s="4"/>
+      <c r="P29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="4"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="13"/>
+      <c r="C30" s="7"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="7"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="7"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="7"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="7"/>
+      <c r="X30" s="11"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="13"/>
+      <c r="C31" s="7"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="7"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="7"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="7"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="7"/>
+      <c r="X31" s="11"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="13"/>
+      <c r="C32" s="7"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="7"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="7"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="7"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="7"/>
+      <c r="X32" s="11"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="13"/>
+      <c r="C33" s="7"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="7"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="7"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="7"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="7"/>
+      <c r="X33" s="11"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="6"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="48">
+    <mergeCell ref="C23:E28"/>
+    <mergeCell ref="F23:G28"/>
+    <mergeCell ref="H23:J28"/>
+    <mergeCell ref="K23:M28"/>
+    <mergeCell ref="N23:O28"/>
+    <mergeCell ref="P23:U28"/>
+    <mergeCell ref="V23:X28"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="C29:E34"/>
+    <mergeCell ref="F29:G34"/>
+    <mergeCell ref="H29:J34"/>
+    <mergeCell ref="K29:M34"/>
+    <mergeCell ref="N29:O34"/>
+    <mergeCell ref="C3:E4"/>
+    <mergeCell ref="F3:G4"/>
+    <mergeCell ref="H3:J4"/>
+    <mergeCell ref="K3:M4"/>
+    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="P3:U4"/>
+    <mergeCell ref="V3:X4"/>
+    <mergeCell ref="P5:U10"/>
+    <mergeCell ref="V5:X10"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="C5:E10"/>
+    <mergeCell ref="F5:G10"/>
+    <mergeCell ref="H5:J10"/>
+    <mergeCell ref="K5:M10"/>
+    <mergeCell ref="N5:O10"/>
+    <mergeCell ref="C11:E16"/>
+    <mergeCell ref="F11:G16"/>
+    <mergeCell ref="H11:J16"/>
+    <mergeCell ref="K11:M16"/>
+    <mergeCell ref="N11:O16"/>
+    <mergeCell ref="P11:U16"/>
+    <mergeCell ref="V11:X16"/>
     <mergeCell ref="P17:U22"/>
+    <mergeCell ref="V17:X22"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="C17:E22"/>
+    <mergeCell ref="F17:G22"/>
+    <mergeCell ref="H17:J22"/>
+    <mergeCell ref="K17:M22"/>
+    <mergeCell ref="N17:O22"/>
+    <mergeCell ref="P29:U34"/>
+    <mergeCell ref="V29:X34"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
